--- a/requisitos/android/PA_Pacote de Execucao de testes -ParentsAssistance.xlsx
+++ b/requisitos/android/PA_Pacote de Execucao de testes -ParentsAssistance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Execução teste Funcional" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>TESTAR SE O CADASTRO ALUNO É DE FACIL ACESSO E PRATICO</t>
   </si>
   <si>
-    <t>TESTAR SE O CADASTRO DE DISCIPLINA É DE FACIL ACESSO E PRATICO</t>
-  </si>
-  <si>
     <t>TESTAR SE ESTA SALVANDO CADASTRO DE ALUNO NO BANCO DE DADOS.</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>cadastrar disciplina com sucesso</t>
+  </si>
+  <si>
+    <t>---------</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
         <v>42347</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -809,7 +809,7 @@
         <v>42347</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -823,7 +823,7 @@
         <v>42347</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -837,7 +837,7 @@
         <v>42347</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -851,7 +851,7 @@
         <v>42347</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -865,7 +865,7 @@
         <v>42347</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -879,7 +879,7 @@
         <v>42347</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -893,7 +893,7 @@
         <v>42347</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -963,7 +963,7 @@
         <v>42347</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -977,7 +977,7 @@
         <v>42347</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -991,7 +991,7 @@
         <v>42347</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1142,7 +1142,7 @@
         <v>42347</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1156,7 +1156,7 @@
         <v>42347</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1170,7 +1170,7 @@
         <v>42347</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1184,7 +1184,7 @@
         <v>42347</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1226,7 +1226,7 @@
         <v>42347</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1469,7 +1469,7 @@
         <v>42347</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
